--- a/biology/Zoologie/Chlorophorus_ruficornis/Chlorophorus_ruficornis.xlsx
+++ b/biology/Zoologie/Chlorophorus_ruficornis/Chlorophorus_ruficornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlorophorus ruficornis est une espèce de coléoptères de la famille des Cerambycidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlorophorus ruficornis est une espèce de coléoptères de la famille des Cerambycidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entièrement noir sauf la tête, le pronotum et les antennes roux, et les pattes antérieures rougeâtres. Il mesure de 8 à 12 mm et ses élytres présentent deux fascies en forme de chevron dont une fine et blanche et en-dessous une large et grise. L'apex de élytres est également gris[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entièrement noir sauf la tête, le pronotum et les antennes roux, et les pattes antérieures rougeâtres. Il mesure de 8 à 12 mm et ses élytres présentent deux fascies en forme de chevron dont une fine et blanche et en-dessous une large et grise. L'apex de élytres est également gris.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adulte, visible de juin à septembre, se tient sur les branches de Chêne vert, mais on peut aussi l'observer sur les inflorescences de Carotte sauvage. La larve se développe dans les petites branches mortes de Quercus ilex[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adulte, visible de juin à septembre, se tient sur les branches de Chêne vert, mais on peut aussi l'observer sur les inflorescences de Carotte sauvage. La larve se développe dans les petites branches mortes de Quercus ilex.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez rare et méditerranéenne, l'espèce est restreinte à la péninsule ibérique et dans le Sud de la France en région méditerranéenne[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez rare et méditerranéenne, l'espèce est restreinte à la péninsule ibérique et dans le Sud de la France en région méditerranéenne.
 </t>
         </is>
       </c>
@@ -604,11 +622,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Chlorophorus ruficornis (Olivier, 1790)[3].
-L'espèce a été initialement classée dans le genre Callidium sous le protonyme Callidium ruficornis Olivier, 1790[3].
-Chlorophorus ruficornis a pour synonymes[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Chlorophorus ruficornis (Olivier, 1790).
+L'espèce a été initialement classée dans le genre Callidium sous le protonyme Callidium ruficornis Olivier, 1790.
+Chlorophorus ruficornis a pour synonymes :
 Callidium ruficorne Olivier, 1790
 Callidium ruficornis Olivier, 1790
 Clytanthus ruficornis  ar. feneoni Chobaut, 1895
